--- a/forecast_summary_B083GT6ZBX.xlsx
+++ b/forecast_summary_B083GT6ZBX.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.1745528791307459</v>
       </c>
       <c r="D2" t="n">
-        <v>1.317348802694924</v>
+        <v>1.353317282495087</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>1.270340975695992</v>
       </c>
       <c r="D3" t="n">
-        <v>2.405028677185706</v>
+        <v>2.484837993590751</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>1.648742780850159</v>
       </c>
       <c r="D4" t="n">
-        <v>2.774924892689813</v>
+        <v>2.752170353798268</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>0.08242045051476535</v>
       </c>
       <c r="D5" t="n">
-        <v>1.137258888535769</v>
+        <v>1.194632435882379</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-2.68099589418326</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.595830637662266</v>
+        <v>-1.478194758026529</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-4.063551501104079</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.929028344802424</v>
+        <v>-2.856380881465116</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>-2.264908649485761</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.167620617290406</v>
+        <v>-1.180886205647218</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>1.279014573303694</v>
       </c>
       <c r="D9" t="n">
-        <v>2.459201786488448</v>
+        <v>2.387057166960841</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>2.660154683977652</v>
       </c>
       <c r="D10" t="n">
-        <v>3.786513284450474</v>
+        <v>3.790074336429469</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-0.7107440581108608</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5329523503787243</v>
+        <v>0.4223812491334337</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-7.080989600516375</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.879742175531105</v>
+        <v>-5.940324654457928</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>-11.54246436180777</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.44367205946082</v>
+        <v>-10.41638207425666</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-10.5396313117149</v>
       </c>
       <c r="D14" t="n">
-        <v>-9.47940471474187</v>
+        <v>-9.39604231959493</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-5.161717730542343</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.00132080077088</v>
+        <v>-4.028093006884092</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>0.1267231649135729</v>
       </c>
       <c r="D16" t="n">
-        <v>1.316670314537948</v>
+        <v>1.253286503273072</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>1.848010719620297</v>
       </c>
       <c r="D17" t="n">
-        <v>2.997457982634463</v>
+        <v>2.900416698945545</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.3812619550972353</v>
       </c>
       <c r="D18" t="n">
-        <v>1.473672289926556</v>
+        <v>1.543847494101364</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-1.314370762946924</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1667059414450776</v>
+        <v>-0.1949812001951117</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-1.195424706764257</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.003513458599339218</v>
+        <v>-0.04385768359176408</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>0.1083712551274109</v>
       </c>
       <c r="D21" t="n">
-        <v>1.210948255749827</v>
+        <v>1.169695618741641</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z590 AORUS TACHYON</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
